--- a/File/MatLab/8/insFrc_AcfNrm.xlsx
+++ b/File/MatLab/8/insFrc_AcfNrm.xlsx
@@ -319,1002 +319,1002 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>2.0957259322039867</v>
+        <v>2.0938545198362832</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>2.0942525149527187</v>
+        <v>2.0953089440720643</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2.1040498017845275</v>
+        <v>2.0952132171374087</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2.0981753476524614</v>
+        <v>2.095166371016555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2.1069223536289234</v>
+        <v>2.1000727170443314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2.118260700629831</v>
+        <v>2.1045698923043954</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2.130558660399945</v>
+        <v>2.1146161073894323</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2.131530819383189</v>
+        <v>2.1192481160072463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2.1274038267252724</v>
+        <v>2.1203623492637274</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2.1238044630700177</v>
+        <v>2.133027091882588</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2.1368550920193097</v>
+        <v>2.142250822166977</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2.167435539732986</v>
+        <v>2.1394085053083467</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2.173711391586169</v>
+        <v>2.1402803176651046</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2.168871507884929</v>
+        <v>2.1426829645685803</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2.1620354588237607</v>
+        <v>2.1404454009210823</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2.1400995739444655</v>
+        <v>2.1398118071610313</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2.1363730887289956</v>
+        <v>2.1395820986637055</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2.13902522507692</v>
+        <v>2.140898636735457</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2.138995502118059</v>
+        <v>2.145026321329852</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2.1404330097203745</v>
+        <v>2.1457064397498415</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2.136795048096203</v>
+        <v>2.149524483892052</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2.1288030735146712</v>
+        <v>2.15416376313208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2.1213052825152467</v>
+        <v>2.153145859182122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2.109850797235747</v>
+        <v>2.1218769733475242</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2.092673068321684</v>
+        <v>2.0987079486242557</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2.074317402310899</v>
+        <v>2.0687593823665296</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2.0543396806006164</v>
+        <v>2.047623063176421</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2.042908535418268</v>
+        <v>2.037779597025147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2.030822242439639</v>
+        <v>2.0241554013966736</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>2.0221946334909005</v>
+        <v>2.019593051730899</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2.0182561139684134</v>
+        <v>2.0108078116646677</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>2.011546090134921</v>
+        <v>2.0020249891198767</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>2.000331792759617</v>
+        <v>2.002322869550157</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1.998438517114714</v>
+        <v>1.9944574228583967</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1.9941989716244215</v>
+        <v>1.9915366956113907</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1.99238345120793</v>
+        <v>1.990341603175589</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1.9895227241667515</v>
+        <v>1.9871487509794927</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.9839175556781787</v>
+        <v>1.9832747415817984</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1.979210886503213</v>
+        <v>1.979431747232117</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1.9722476787000724</v>
+        <v>1.9719463783988673</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1.96575017368807</v>
+        <v>1.9668676793937314</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1.9623494601379692</v>
+        <v>1.962372473330539</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1.957915974712149</v>
+        <v>1.9595395452632034</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1.9462396316417765</v>
+        <v>1.949764103949232</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1.9384760903370237</v>
+        <v>1.9403791414250815</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1.9218169417325803</v>
+        <v>1.9236781223863049</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1.9165665582850044</v>
+        <v>1.91384554902122</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.9058815513645508</v>
+        <v>1.903935124246722</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1.9032567123397732</v>
+        <v>1.9043305130964843</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1.907304935485194</v>
+        <v>1.9009231581589865</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1.9033373283000476</v>
+        <v>1.8846319375270713</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1.884744141666444</v>
+        <v>1.872814416465315</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1.8705995719460158</v>
+        <v>1.8713374194754464</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1.8714587936546612</v>
+        <v>1.8725342800430325</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1.8682791231695817</v>
+        <v>1.870593866901955</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1.8666784102027816</v>
+        <v>1.8673605676835132</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1.868245801139915</v>
+        <v>1.867307722341149</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.8702197185298803</v>
+        <v>1.8678483088994273</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1.8660122060907232</v>
+        <v>1.8669147125337506</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1.8610784538320586</v>
+        <v>1.862319754909743</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1.8552979083756451</v>
+        <v>1.8561606897962803</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1.8543906271204509</v>
+        <v>1.853801956628585</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1.8522163377618412</v>
+        <v>1.8541894139770312</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1.8498143248567018</v>
+        <v>1.8495927098437392</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1.8466089899468066</v>
+        <v>1.8471097327458272</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1.8412231649733188</v>
+        <v>1.8376911241497689</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1.8360964096759618</v>
+        <v>1.8364830029601324</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.8331525374035125</v>
+        <v>1.834157325448686</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1.833162743097534</v>
+        <v>1.833082987340787</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1.8340040025082605</v>
+        <v>1.8322535634633295</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1.8333509612527688</v>
+        <v>1.8331000461612605</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1.8329097077286454</v>
+        <v>1.832264546293851</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1.835221813696218</v>
+        <v>1.8349575561311824</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1.8340930231897796</v>
+        <v>1.8340081866653775</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1.834609313760756</v>
+        <v>1.8340003924954633</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1.834837092178515</v>
+        <v>1.8348410152354835</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1.8346559061417271</v>
+        <v>1.8349479168532656</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.8320524044345081</v>
+        <v>1.8323964738699114</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1.8267941413121154</v>
+        <v>1.8253721080588474</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1.8221019805723002</v>
+        <v>1.8254717916675276</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1.8160711466988062</v>
+        <v>1.8206538427081256</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1.803178775624671</v>
+        <v>1.8194103109856186</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1.8001249792997733</v>
+        <v>1.8128857400766676</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1.7939989744280656</v>
+        <v>1.8018411271547308</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1.7850758869985002</v>
+        <v>1.7889963834082119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1.7786106545538507</v>
+        <v>1.777525097779157</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1.7693860492269913</v>
+        <v>1.7679011812062997</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.7656550750740916</v>
+        <v>1.764652866740293</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1.7619711526200263</v>
+        <v>1.758154451405913</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1.7569208860210888</v>
+        <v>1.755158034566929</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1.7552633136689852</v>
+        <v>1.753154231699714</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1.7533532182941993</v>
+        <v>1.752828493524194</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1.7534437627188757</v>
+        <v>1.7529571475689387</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1.7495976042870884</v>
+        <v>1.751292787048632</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1.7457204991704605</v>
+        <v>1.748650406280066</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1.7414462101956163</v>
+        <v>1.7466178012258649</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1.7410533390732374</v>
+        <v>1.7437544978205834</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.7405721258117701</v>
+        <v>1.74462884783254</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1.7455334079384506</v>
+        <v>1.7473730952324922</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1.748458331933511</v>
+        <v>1.7503259712375363</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1.7553447301050475</v>
+        <v>1.7557850003540887</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1.7572123152635588</v>
+        <v>1.7583625952496396</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1.7562461376408698</v>
+        <v>1.7597317523466853</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1.7535290525364582</v>
+        <v>1.758139193764323</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1.7508568878538546</v>
+        <v>1.7536077664999348</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1.744361606589893</v>
+        <v>1.7481001041456627</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1.7393253066434409</v>
+        <v>1.740433437793139</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.7341977156787987</v>
+        <v>1.736446535782509</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1.7333354984189344</v>
+        <v>1.7326676209824785</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1.7287000679262325</v>
+        <v>1.7312759578318888</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1.7299955917467669</v>
+        <v>1.7319849094880864</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1.7325051191606158</v>
+        <v>1.7316930070653138</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1.7282974215637252</v>
+        <v>1.7293276326678977</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1.724651787454122</v>
+        <v>1.7268542136818685</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1.7266674477850532</v>
+        <v>1.7265385736611163</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>1.7253076803925018</v>
+        <v>1.726653158503806</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1.7254229813389268</v>
+        <v>1.72834037446476</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.7217744943859654</v>
+        <v>1.7258180756839994</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>1.722779154934885</v>
+        <v>1.7249687554495585</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>1.7176218005950257</v>
+        <v>1.720665180414093</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1.704730201466821</v>
+        <v>1.7106063700738527</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>1.6971464275821089</v>
+        <v>1.697005250534131</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1.678715604574487</v>
+        <v>1.6867839868400618</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>1.6723169521862884</v>
+        <v>1.6746182092525537</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1.6769210412894275</v>
+        <v>1.6816215734263829</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>1.6761770103368798</v>
+        <v>1.6808658844190094</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1.6646863782062602</v>
+        <v>1.6639059801623055</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.6607936393213274</v>
+        <v>1.6548497992016187</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>1.650138293068843</v>
+        <v>1.639446113283297</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>1.6354258974102427</v>
+        <v>1.629023431149009</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>1.632962692610696</v>
+        <v>1.6258151435416934</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>1.633861762953661</v>
+        <v>1.6279573970061794</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>1.6361292298148613</v>
+        <v>1.6297294242422118</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1.6374328772959375</v>
+        <v>1.6320582791733584</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>1.636879347693574</v>
+        <v>1.630032070997752</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1.6328942622373948</v>
+        <v>1.6294883446988475</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1.6316136208724155</v>
+        <v>1.6253259396747275</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1.6310301440822226</v>
+        <v>1.6243167304515018</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1.636437674096625</v>
+        <v>1.6304933839772833</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1.6439334392771514</v>
+        <v>1.641041111759645</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>1.6468364774958397</v>
+        <v>1.6462527644210847</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1.6467877014814736</v>
+        <v>1.6470733680034346</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1.6451557987181356</v>
+        <v>1.6437175503238897</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1.6396855442310694</v>
+        <v>1.6360315853797303</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>1.6339517511822121</v>
+        <v>1.6288506002655945</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1.6333914560308347</v>
+        <v>1.6238766101665965</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1.6318069836896654</v>
+        <v>1.6248292140192788</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.6400958829954577</v>
+        <v>1.6328124567124593</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>1.6491349809583076</v>
+        <v>1.6500501631942144</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>1.6654418097626236</v>
+        <v>1.6646029473024901</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>1.6643386581703332</v>
+        <v>1.6659461871719203</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1.6652038459663643</v>
+        <v>1.6719379286375256</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1.6641307266769614</v>
+        <v>1.6706067181340538</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1.6644317133962072</v>
+        <v>1.6647187346234313</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>1.6605186150405098</v>
+        <v>1.6656434144829033</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>1.645956536480059</v>
+        <v>1.6476484734768477</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1.6399692068438692</v>
+        <v>1.6403767696208993</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1.6307719136158982</v>
+        <v>1.6311517200037753</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>1.6221291557357527</v>
+        <v>1.6199140843629576</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>1.6223372531856128</v>
+        <v>1.619510663368561</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>1.6190486979928642</v>
+        <v>1.6158103489939801</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>1.6183392762797646</v>
+        <v>1.6158406209360943</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>1.6258374812769079</v>
+        <v>1.6242073694631975</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>1.6340145132241457</v>
+        <v>1.6327374467667801</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>1.6385351346294104</v>
+        <v>1.6427488374433845</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>1.6452309986560638</v>
+        <v>1.644165346847282</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>1.6428398643016884</v>
+        <v>1.6459305796106567</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.6381342680819913</v>
+        <v>1.6395130679189813</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>1.6332234508978702</v>
+        <v>1.6334396028262517</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>1.6350223219632611</v>
+        <v>1.6337602658366737</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>1.6323571254220077</v>
+        <v>1.6301523751364182</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>1.6330138991433678</v>
+        <v>1.631723668212752</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>1.6338873278993582</v>
+        <v>1.6326613188192711</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>1.6339914690507102</v>
+        <v>1.6325403036245008</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>1.6357835761122888</v>
+        <v>1.6348578179593576</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>1.634524154665603</v>
+        <v>1.6386886733477004</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>1.638221243358665</v>
+        <v>1.6405812992472537</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.639841042234686</v>
+        <v>1.6425319617956915</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>1.6457779646619959</v>
+        <v>1.6446391166690535</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>1.6473005610190605</v>
+        <v>1.6481277964637497</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>1.647530366839451</v>
+        <v>1.6462293273122697</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>1.6475193467790104</v>
+        <v>1.6495084494252483</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>1.6501531133923786</v>
+        <v>1.6489351895714157</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>1.6542281573582422</v>
+        <v>1.6521139809905458</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>1.6563740997074263</v>
+        <v>1.6567971045445322</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>1.6564778892935028</v>
+        <v>1.657418993368565</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>1.6613642695709845</v>
+        <v>1.6624798186319119</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.6643800599420988</v>
+        <v>1.664906996512153</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>1.664169732904245</v>
+        <v>1.664357189814254</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>1.664932860837683</v>
+        <v>1.6651152246033831</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>1.6634479221540683</v>
+        <v>1.664352156745647</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>1.6632809858243451</v>
+        <v>1.6647311928467585</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>1.6655080359839491</v>
+        <v>1.6642905775694419</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>1.6578731665721635</v>
+        <v>1.6607533399383954</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>1.6484057802259706</v>
+        <v>1.650313756460619</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>1.6471995336875591</v>
+        <v>1.6483009059722376</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>1.6488958471117092</v>
+        <v>1.6487902964613834</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.6475255668183815</v>
+        <v>1.647796605261629</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>1.6474769844482953</v>
+        <v>1.6466498052821998</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>1.646482719987755</v>
+        <v>1.646748287573634</v>
       </c>
     </row>
   </sheetData>
